--- a/results/real_data_guru_0.2_opt_constrained/k=0.2/CSG/dataset_06/results_excel_26-9-22_guru_constrained_1_.xlsx
+++ b/results/real_data_guru_0.2_opt_constrained/k=0.2/CSG/dataset_06/results_excel_26-9-22_guru_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\real_data_guru_0.2_opt_constrained\k=0.2\CSG\dataset_06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBB1DDB-28EC-4FA7-93DF-5DE0BC686560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>dataset</t>
   </si>
@@ -122,13 +141,25 @@
   </si>
   <si>
     <t>Official_Experiment_CSG_dataset_06_instance_10_9_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +173,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -180,22 +220,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -237,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,9 +320,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,6 +372,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,14 +565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -603,7 +692,7 @@
         <v>0.2</v>
       </c>
       <c r="N2">
-        <v>0.9957374254049446</v>
+        <v>0.99573742540494459</v>
       </c>
       <c r="O2">
         <v>2896</v>
@@ -612,16 +701,16 @@
         <v>550</v>
       </c>
       <c r="Q2">
-        <v>1.66116747527909</v>
+        <v>1.6611674752790899</v>
       </c>
       <c r="R2">
-        <v>1432.3578885965</v>
+        <v>1432.3578885965001</v>
       </c>
       <c r="S2">
-        <v>5.265454545454546</v>
+        <v>5.2654545454545456</v>
       </c>
       <c r="T2">
-        <v>5.917894736842105</v>
+        <v>5.9178947368421051</v>
       </c>
       <c r="U2">
         <v>1.777980766871891</v>
@@ -642,7 +731,7 @@
         <v>1.000491666256945</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -683,7 +772,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>0.9889472229897762</v>
+        <v>0.98894722298977622</v>
       </c>
       <c r="O3">
         <v>4224</v>
@@ -692,22 +781,22 @@
         <v>605</v>
       </c>
       <c r="Q3">
-        <v>1.943309367355256</v>
+        <v>1.9433093673552559</v>
       </c>
       <c r="R3">
         <v>2443.29783275007</v>
       </c>
       <c r="S3">
-        <v>6.981818181818181</v>
+        <v>6.9818181818181806</v>
       </c>
       <c r="T3">
-        <v>8.017647058823529</v>
+        <v>8.0176470588235293</v>
       </c>
       <c r="U3">
         <v>2.081644994646271</v>
       </c>
       <c r="V3">
-        <v>2517.361052730402</v>
+        <v>2517.3610527304022</v>
       </c>
       <c r="W3">
         <v>14055</v>
@@ -719,10 +808,10 @@
         <v>14015</v>
       </c>
       <c r="Z3">
-        <v>1.002854084909026</v>
+        <v>1.0028540849090259</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,19 +864,19 @@
         <v>1.823213583927257</v>
       </c>
       <c r="R4">
-        <v>2442.170151652738</v>
+        <v>2442.1701516527378</v>
       </c>
       <c r="S4">
-        <v>6.191724137931034</v>
+        <v>6.1917241379310344</v>
       </c>
       <c r="T4">
-        <v>9.750588235294117</v>
+        <v>9.7505882352941171</v>
       </c>
       <c r="U4">
-        <v>2.277327615014902</v>
+        <v>2.2773276150149022</v>
       </c>
       <c r="V4">
-        <v>2751.135763618667</v>
+        <v>2751.1357636186672</v>
       </c>
       <c r="W4">
         <v>22950</v>
@@ -799,10 +888,10 @@
         <v>22905</v>
       </c>
       <c r="Z4">
-        <v>1.00196463654224</v>
+        <v>1.0019646365422401</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,7 +932,7 @@
         <v>0.2</v>
       </c>
       <c r="N5">
-        <v>0.9701834862385321</v>
+        <v>0.97018348623853212</v>
       </c>
       <c r="O5">
         <v>2764</v>
@@ -855,19 +944,19 @@
         <v>1.554533202059333</v>
       </c>
       <c r="R5">
-        <v>1272.152609997349</v>
+        <v>1272.1526099973489</v>
       </c>
       <c r="S5">
-        <v>4.732876712328767</v>
+        <v>4.7328767123287667</v>
       </c>
       <c r="T5">
-        <v>6.171149144254279</v>
+        <v>6.1711491442542794</v>
       </c>
       <c r="U5">
         <v>1.819885067618302</v>
       </c>
       <c r="V5">
-        <v>1370.667007344115</v>
+        <v>1370.6670073441151</v>
       </c>
       <c r="W5">
         <v>16058</v>
@@ -882,7 +971,7 @@
         <v>1.004064278121678</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -932,10 +1021,10 @@
         <v>725</v>
       </c>
       <c r="Q6">
-        <v>1.996059932740785</v>
+        <v>1.9960599327407851</v>
       </c>
       <c r="R6">
-        <v>3163.856548762931</v>
+        <v>3163.8565487629312</v>
       </c>
       <c r="S6">
         <v>7.36</v>
@@ -944,10 +1033,10 @@
         <v>7.36</v>
       </c>
       <c r="U6">
-        <v>1.996059932740785</v>
+        <v>1.9960599327407851</v>
       </c>
       <c r="V6">
-        <v>3163.856548762931</v>
+        <v>3163.8565487629312</v>
       </c>
       <c r="W6">
         <v>24119</v>
@@ -962,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1003,7 +1092,7 @@
         <v>0.2</v>
       </c>
       <c r="N7">
-        <v>0.9258555133079848</v>
+        <v>0.92585551330798477</v>
       </c>
       <c r="O7">
         <v>2063</v>
@@ -1015,19 +1104,19 @@
         <v>1.447767622133769</v>
       </c>
       <c r="R7">
-        <v>875.8327032651223</v>
+        <v>875.83270326512229</v>
       </c>
       <c r="S7">
-        <v>4.25360824742268</v>
+        <v>4.2536082474226804</v>
       </c>
       <c r="T7">
-        <v>5.712903225806452</v>
+        <v>5.7129032258064516</v>
       </c>
       <c r="U7">
-        <v>1.742727340303642</v>
+        <v>1.7427273403036421</v>
       </c>
       <c r="V7">
-        <v>920.7545245058711</v>
+        <v>920.75452450587113</v>
       </c>
       <c r="W7">
         <v>15269</v>
@@ -1039,10 +1128,10 @@
         <v>15152</v>
       </c>
       <c r="Z7">
-        <v>1.007721752903907</v>
+        <v>1.0077217529039071</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1092,19 +1181,19 @@
         <v>375</v>
       </c>
       <c r="Q8">
-        <v>2.148345520327047</v>
+        <v>2.1483455203270472</v>
       </c>
       <c r="R8">
-        <v>2033.370429877357</v>
+        <v>2033.3704298773571</v>
       </c>
       <c r="S8">
         <v>8.570666666666666</v>
       </c>
       <c r="T8">
-        <v>8.597222222222221</v>
+        <v>8.5972222222222214</v>
       </c>
       <c r="U8">
-        <v>2.151439153668541</v>
+        <v>2.1514391536685409</v>
       </c>
       <c r="V8">
         <v>1960.481904679325</v>
@@ -1122,7 +1211,7 @@
         <v>1.005905735377626</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1163,7 +1252,7 @@
         <v>0.2</v>
       </c>
       <c r="N9">
-        <v>0.9214826624153049</v>
+        <v>0.92148266241530485</v>
       </c>
       <c r="O9">
         <v>3269</v>
@@ -1178,7 +1267,7 @@
         <v>1400.220060182686</v>
       </c>
       <c r="S9">
-        <v>4.301315789473684</v>
+        <v>4.3013157894736844</v>
       </c>
       <c r="T9">
         <v>8.706666666666667</v>
@@ -1187,7 +1276,7 @@
         <v>2.16408901574012</v>
       </c>
       <c r="V9">
-        <v>1662.773295277964</v>
+        <v>1662.7732952779641</v>
       </c>
       <c r="W9">
         <v>17545</v>
@@ -1202,7 +1291,7 @@
         <v>1.011355775881946</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1243,7 +1332,7 @@
         <v>0.2</v>
       </c>
       <c r="N10">
-        <v>0.9838008692216516</v>
+        <v>0.98380086922165155</v>
       </c>
       <c r="O10">
         <v>3031</v>
@@ -1258,13 +1347,13 @@
         <v>1629.980110682194</v>
       </c>
       <c r="S10">
-        <v>6.062</v>
+        <v>6.0620000000000003</v>
       </c>
       <c r="T10">
-        <v>6.790697674418604</v>
+        <v>6.7906976744186043</v>
       </c>
       <c r="U10">
-        <v>1.915553686574719</v>
+        <v>1.9155536865747189</v>
       </c>
       <c r="V10">
         <v>1666.311914772871</v>
@@ -1279,10 +1368,10 @@
         <v>19752</v>
       </c>
       <c r="Z10">
-        <v>1.002075739165654</v>
+        <v>1.0020757391656541</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1323,7 +1412,7 @@
         <v>0.2</v>
       </c>
       <c r="N11">
-        <v>0.9823834196891191</v>
+        <v>0.98238341968911913</v>
       </c>
       <c r="O11">
         <v>3405</v>
@@ -1332,22 +1421,22 @@
         <v>510</v>
       </c>
       <c r="Q11">
-        <v>1.898589492865241</v>
+        <v>1.8985894928652409</v>
       </c>
       <c r="R11">
         <v>1926.719358638727</v>
       </c>
       <c r="S11">
-        <v>6.676470588235294</v>
+        <v>6.6764705882352944</v>
       </c>
       <c r="T11">
-        <v>8.48421052631579</v>
+        <v>8.4842105263157901</v>
       </c>
       <c r="U11">
-        <v>2.138206850906088</v>
+        <v>2.1382068509060881</v>
       </c>
       <c r="V11">
-        <v>2031.481396655687</v>
+        <v>2031.4813966556869</v>
       </c>
       <c r="W11">
         <v>24653</v>
@@ -1360,9 +1449,52 @@
       </c>
       <c r="Z11">
         <v>1.002073002194944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <f>AVERAGE(N2:N11)</f>
+        <v>0.97198026155173678</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>1.0038506671353966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2">
+        <f>MIN(N2:N11)</f>
+        <v>0.92148266241530485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2">
+        <f>MAX(Z2:Z11)</f>
+        <v>1.011355775881946</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>